--- a/MRF FINANCIAL DATA.xlsx
+++ b/MRF FINANCIAL DATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yash1\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F96B2974-4857-4978-B2CE-708DC973FB1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6DC3E1-CB06-4FD7-AB18-D7BF6AC35993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{41598123-1F43-4A4B-B29F-3C5B4CE19EEA}"/>
   </bookViews>
@@ -570,7 +570,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -791,6 +791,14 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -812,18 +820,9 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -9245,6 +9244,133 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2667000" cy="1986826"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BF9F380-012D-2086-4AEB-191A43664DBE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14218920" y="23362920"/>
+          <a:ext cx="2667000" cy="1986826"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Insigh</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>t</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>In 2020, the company had financial debt caused by the Covid-19 pandemic.After 2020, the company has kept the interest expenses maintained. A lower interest expense ratio indicates that a company has minimal debt, which can be a positive sign for investors. It suggests that the company is not heavily reliant on loans and may have better financial stability, making it a potentially good investment opportunity.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9590,8 +9716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{516123B6-670F-418B-9F7F-AFBD9747F3AB}">
   <dimension ref="A1:AT85"/>
   <sheetViews>
-    <sheetView topLeftCell="A62" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I80" sqref="I80"/>
+    <sheetView topLeftCell="A63" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9652,7 +9778,7 @@
       <c r="K4" s="12"/>
     </row>
     <row r="5" spans="1:46" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="84" t="s">
+      <c r="A5" s="88" t="s">
         <v>80</v>
       </c>
       <c r="B5" s="27" t="s">
@@ -9726,7 +9852,7 @@
       <c r="AO5" s="3"/>
     </row>
     <row r="6" spans="1:46" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="85"/>
+      <c r="A6" s="89"/>
       <c r="B6" s="44"/>
       <c r="C6" s="44"/>
       <c r="D6" s="44"/>
@@ -9898,18 +10024,18 @@
       <c r="AF8" s="1"/>
       <c r="AG8" s="1"/>
       <c r="AH8" s="7"/>
-      <c r="AI8" s="86"/>
-      <c r="AJ8" s="86"/>
-      <c r="AK8" s="86"/>
-      <c r="AL8" s="86"/>
-      <c r="AM8" s="86"/>
-      <c r="AN8" s="86"/>
-      <c r="AO8" s="86"/>
-      <c r="AP8" s="86"/>
-      <c r="AQ8" s="86"/>
-      <c r="AR8" s="86"/>
-      <c r="AS8" s="86"/>
-      <c r="AT8" s="86"/>
+      <c r="AI8" s="90"/>
+      <c r="AJ8" s="90"/>
+      <c r="AK8" s="90"/>
+      <c r="AL8" s="90"/>
+      <c r="AM8" s="90"/>
+      <c r="AN8" s="90"/>
+      <c r="AO8" s="90"/>
+      <c r="AP8" s="90"/>
+      <c r="AQ8" s="90"/>
+      <c r="AR8" s="90"/>
+      <c r="AS8" s="90"/>
+      <c r="AT8" s="90"/>
     </row>
     <row r="9" spans="1:46" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="43" t="s">
@@ -10176,9 +10302,9 @@
       <c r="AF12" s="1"/>
       <c r="AG12" s="1"/>
       <c r="AH12" s="1"/>
-      <c r="AI12" s="80"/>
-      <c r="AJ12" s="81"/>
-      <c r="AK12" s="82"/>
+      <c r="AI12" s="84"/>
+      <c r="AJ12" s="85"/>
+      <c r="AK12" s="86"/>
       <c r="AL12" s="3"/>
       <c r="AM12" s="3"/>
       <c r="AN12" s="3"/>
@@ -12526,9 +12652,9 @@
       <c r="AF43" s="1"/>
       <c r="AG43" s="1"/>
       <c r="AH43" s="1"/>
-      <c r="AI43" s="80"/>
-      <c r="AJ43" s="81"/>
-      <c r="AK43" s="82"/>
+      <c r="AI43" s="84"/>
+      <c r="AJ43" s="85"/>
+      <c r="AK43" s="86"/>
       <c r="AL43" s="3"/>
       <c r="AM43" s="3"/>
       <c r="AN43" s="3"/>
@@ -12726,9 +12852,9 @@
       <c r="AF46" s="1"/>
       <c r="AG46" s="1"/>
       <c r="AH46" s="1"/>
-      <c r="AI46" s="80"/>
-      <c r="AJ46" s="81"/>
-      <c r="AK46" s="82"/>
+      <c r="AI46" s="84"/>
+      <c r="AJ46" s="85"/>
+      <c r="AK46" s="86"/>
       <c r="AL46" s="3"/>
       <c r="AM46" s="3"/>
       <c r="AN46" s="3"/>
@@ -12892,9 +13018,9 @@
       <c r="AF49" s="1"/>
       <c r="AG49" s="1"/>
       <c r="AH49" s="1"/>
-      <c r="AI49" s="80"/>
-      <c r="AJ49" s="81"/>
-      <c r="AK49" s="82"/>
+      <c r="AI49" s="84"/>
+      <c r="AJ49" s="85"/>
+      <c r="AK49" s="86"/>
       <c r="AL49" s="3"/>
       <c r="AM49" s="3"/>
       <c r="AN49" s="3"/>
@@ -13092,9 +13218,9 @@
       <c r="AF52" s="1"/>
       <c r="AG52" s="1"/>
       <c r="AH52" s="1"/>
-      <c r="AI52" s="80"/>
-      <c r="AJ52" s="81"/>
-      <c r="AK52" s="82"/>
+      <c r="AI52" s="84"/>
+      <c r="AJ52" s="85"/>
+      <c r="AK52" s="86"/>
       <c r="AL52" s="3"/>
       <c r="AM52" s="3"/>
       <c r="AN52" s="3"/>
@@ -13170,9 +13296,9 @@
       <c r="AF53" s="1"/>
       <c r="AG53" s="1"/>
       <c r="AH53" s="1"/>
-      <c r="AI53" s="80"/>
-      <c r="AJ53" s="81"/>
-      <c r="AK53" s="82"/>
+      <c r="AI53" s="84"/>
+      <c r="AJ53" s="85"/>
+      <c r="AK53" s="86"/>
       <c r="AL53" s="3"/>
       <c r="AM53" s="3"/>
       <c r="AN53" s="3"/>
@@ -13452,9 +13578,9 @@
       <c r="AF57" s="32"/>
       <c r="AG57" s="32"/>
       <c r="AH57" s="32"/>
-      <c r="AI57" s="83"/>
-      <c r="AJ57" s="83"/>
-      <c r="AK57" s="83"/>
+      <c r="AI57" s="87"/>
+      <c r="AJ57" s="87"/>
+      <c r="AK57" s="87"/>
       <c r="AL57" s="18"/>
       <c r="AM57" s="18"/>
       <c r="AN57" s="18"/>
@@ -14268,7 +14394,7 @@
         <v>6.1816075494163361E-2</v>
       </c>
       <c r="C74" s="77">
-        <f t="shared" ref="C74:R75" si="2">C71/C72</f>
+        <f t="shared" ref="C74:R74" si="2">C71/C72</f>
         <v>5.9380368696664403E-2</v>
       </c>
       <c r="D74" s="77">
@@ -14942,40 +15068,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{275C1608-8AC4-4536-9AB9-5CD85DA1FC3D}">
   <dimension ref="H1:AM41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y105" sqref="Y105"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K136" sqref="K136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="9" width="8.88671875" style="87"/>
-    <col min="10" max="10" width="15.33203125" style="87" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="87"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K29"/>
-    </row>
     <row r="35" spans="8:39" ht="28.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="L35" s="88" t="s">
+      <c r="L35" s="80" t="s">
         <v>88</v>
       </c>
-      <c r="M35" s="88"/>
-      <c r="N35" s="88"/>
-      <c r="O35" s="88"/>
-      <c r="P35" s="88"/>
-      <c r="Q35" s="88"/>
-      <c r="R35" s="88"/>
-      <c r="S35" s="88"/>
-      <c r="T35" s="88"/>
-      <c r="U35" s="88"/>
-      <c r="V35" s="88"/>
-      <c r="W35" s="89"/>
+      <c r="M35" s="80"/>
+      <c r="N35" s="80"/>
+      <c r="O35" s="80"/>
+      <c r="P35" s="80"/>
+      <c r="Q35" s="80"/>
+      <c r="R35" s="80"/>
+      <c r="S35" s="80"/>
+      <c r="T35" s="80"/>
+      <c r="U35" s="80"/>
+      <c r="V35" s="80"/>
+      <c r="W35" s="81"/>
     </row>
     <row r="36" spans="8:39" ht="28.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="H36" s="88"/>
-      <c r="J36" s="92" t="s">
+      <c r="H36" s="80"/>
+      <c r="J36" s="83" t="s">
         <v>89</v>
       </c>
       <c r="K36" s="91"/>
@@ -15002,28 +15123,28 @@
       <c r="AF36" s="91"/>
     </row>
     <row r="41" spans="8:39" x14ac:dyDescent="0.3">
-      <c r="R41" s="90"/>
-      <c r="S41" s="90"/>
-      <c r="T41" s="90"/>
-      <c r="U41" s="90"/>
-      <c r="V41" s="90"/>
-      <c r="W41" s="90"/>
-      <c r="X41" s="90"/>
-      <c r="Y41" s="90"/>
-      <c r="Z41" s="90"/>
-      <c r="AA41" s="90"/>
-      <c r="AB41" s="90"/>
-      <c r="AC41" s="90"/>
-      <c r="AD41" s="90"/>
-      <c r="AE41" s="90"/>
-      <c r="AF41" s="90"/>
-      <c r="AG41" s="90"/>
-      <c r="AH41" s="90"/>
-      <c r="AI41" s="90"/>
-      <c r="AJ41" s="90"/>
-      <c r="AK41" s="90"/>
-      <c r="AL41" s="90"/>
-      <c r="AM41" s="90"/>
+      <c r="R41" s="82"/>
+      <c r="S41" s="82"/>
+      <c r="T41" s="82"/>
+      <c r="U41" s="82"/>
+      <c r="V41" s="82"/>
+      <c r="W41" s="82"/>
+      <c r="X41" s="82"/>
+      <c r="Y41" s="82"/>
+      <c r="Z41" s="82"/>
+      <c r="AA41" s="82"/>
+      <c r="AB41" s="82"/>
+      <c r="AC41" s="82"/>
+      <c r="AD41" s="82"/>
+      <c r="AE41" s="82"/>
+      <c r="AF41" s="82"/>
+      <c r="AG41" s="82"/>
+      <c r="AH41" s="82"/>
+      <c r="AI41" s="82"/>
+      <c r="AJ41" s="82"/>
+      <c r="AK41" s="82"/>
+      <c r="AL41" s="82"/>
+      <c r="AM41" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="1">
